--- a/src/public/xlsx/informe.xlsx
+++ b/src/public/xlsx/informe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO\Desktop\Produccion-intelectual-docentes-USCO\src\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E81629-5EBE-4A11-B94F-8D812B0A4129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C00D8D2-8A30-42B8-A8E4-559F1D12955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE694799-A3D1-45A5-B8C7-7422629EB6B7}"/>
   </bookViews>
@@ -194,10 +194,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E056CB26-19D1-4F1E-906E-C38C70C1D598}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +530,14 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>

--- a/src/public/xlsx/informe.xlsx
+++ b/src/public/xlsx/informe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO\Desktop\Produccion-intelectual-docentes-USCO\src\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C00D8D2-8A30-42B8-A8E4-559F1D12955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDBBFC-C3C4-4162-979C-2FB616EB29E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE694799-A3D1-45A5-B8C7-7422629EB6B7}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -51,9 +43,6 @@
   </si>
   <si>
     <t>IDENTIFICACIÓN</t>
-  </si>
-  <si>
-    <t>CONTADOR</t>
   </si>
   <si>
     <t>NOMBRES COMPLETOS</t>
@@ -507,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E056CB26-19D1-4F1E-906E-C38C70C1D598}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,19 +518,18 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,11 +590,8 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
